--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1364888-65CA-49CC-A082-C8D1E381C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="16" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,10 +27,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>% of Voter Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +98,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +123,2259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SAKSHI" refreshedDate="45086.032989004627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="255" xr:uid="{3D91E4FC-416E-4BBB-A077-4EF21A35050E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F256" sheet="U.S. Voters (2012)" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="State" numFmtId="0">
+      <sharedItems count="51">
+        <s v="Alabama"/>
+        <s v="Alaska"/>
+        <s v="Arizona"/>
+        <s v="Arkansas"/>
+        <s v="California"/>
+        <s v="Colorado"/>
+        <s v="Connecticut"/>
+        <s v="Delaware"/>
+        <s v="District Of Columbia"/>
+        <s v="Florida"/>
+        <s v="Georgia"/>
+        <s v="Hawaii"/>
+        <s v="Idaho"/>
+        <s v="Illinois"/>
+        <s v="Indiana"/>
+        <s v="Iowa"/>
+        <s v="Kansas"/>
+        <s v="Kentucky"/>
+        <s v="Louisiana"/>
+        <s v="Maine"/>
+        <s v="Maryland"/>
+        <s v="Massachusetts"/>
+        <s v="Michigan"/>
+        <s v="Minnesota"/>
+        <s v="Mississippi"/>
+        <s v="Missouri"/>
+        <s v="Montana"/>
+        <s v="Nebraska"/>
+        <s v="Nevada"/>
+        <s v="New Hampshire"/>
+        <s v="New Jersey"/>
+        <s v="New Mexico"/>
+        <s v="New York"/>
+        <s v="North Carolina"/>
+        <s v="North Dakota"/>
+        <s v="Ohio"/>
+        <s v="Oklahoma"/>
+        <s v="Oregon"/>
+        <s v="Pennsylvania"/>
+        <s v="Rhode Island"/>
+        <s v="South Carolina"/>
+        <s v="South Dakota"/>
+        <s v="Tennessee"/>
+        <s v="Texas"/>
+        <s v="Utah"/>
+        <s v="Vermont"/>
+        <s v="Virginia"/>
+        <s v="Washington"/>
+        <s v="West Virginia"/>
+        <s v="Wisconsin"/>
+        <s v="Wyoming"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems count="5">
+        <s v="18 to 24"/>
+        <s v="25 to 34"/>
+        <s v="35 to 44"/>
+        <s v="45 to 64"/>
+        <s v="65+"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total Population" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="56000" maxValue="9356000"/>
+    </cacheField>
+    <cacheField name="Citizen Population" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55000" maxValue="7827000"/>
+    </cacheField>
+    <cacheField name="Registered Voters" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21000" maxValue="5459000"/>
+    </cacheField>
+    <cacheField name="Confirmed Voters" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18000" maxValue="4926000"/>
+    </cacheField>
+    <cacheField name="Voter Population" numFmtId="0" formula="('Confirmed Voters'/'Citizen Population')*100" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="255">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="439000"/>
+    <n v="428000"/>
+    <n v="212000"/>
+    <n v="155000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="576000"/>
+    <n v="535000"/>
+    <n v="359000"/>
+    <n v="271000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="615000"/>
+    <n v="582000"/>
+    <n v="410000"/>
+    <n v="330000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1297000"/>
+    <n v="1275000"/>
+    <n v="1051000"/>
+    <n v="939000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="667000"/>
+    <n v="660000"/>
+    <n v="523000"/>
+    <n v="459000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="63000"/>
+    <n v="61000"/>
+    <n v="31000"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="109000"/>
+    <n v="103000"/>
+    <n v="70000"/>
+    <n v="46000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="86000"/>
+    <n v="80000"/>
+    <n v="60000"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="186000"/>
+    <n v="182000"/>
+    <n v="144000"/>
+    <n v="122000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="72000"/>
+    <n v="69000"/>
+    <n v="55000"/>
+    <n v="51000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="586000"/>
+    <n v="545000"/>
+    <n v="301000"/>
+    <n v="234000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="859000"/>
+    <n v="709000"/>
+    <n v="399000"/>
+    <n v="289000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="870000"/>
+    <n v="713000"/>
+    <n v="437000"/>
+    <n v="382000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1656000"/>
+    <n v="1502000"/>
+    <n v="1015000"/>
+    <n v="901000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="892000"/>
+    <n v="846000"/>
+    <n v="659000"/>
+    <n v="606000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="288000"/>
+    <n v="281000"/>
+    <n v="126000"/>
+    <n v="70000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="362000"/>
+    <n v="336000"/>
+    <n v="194000"/>
+    <n v="140000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="357000"/>
+    <n v="341000"/>
+    <n v="234000"/>
+    <n v="205000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="742000"/>
+    <n v="704000"/>
+    <n v="498000"/>
+    <n v="442000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="449000"/>
+    <n v="448000"/>
+    <n v="324000"/>
+    <n v="267000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3962000"/>
+    <n v="3479000"/>
+    <n v="1787000"/>
+    <n v="1447000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5357000"/>
+    <n v="4153000"/>
+    <n v="2548000"/>
+    <n v="2070000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="5030000"/>
+    <n v="3675000"/>
+    <n v="2478000"/>
+    <n v="2118000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="9356000"/>
+    <n v="7827000"/>
+    <n v="5459000"/>
+    <n v="4926000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="4653000"/>
+    <n v="4284000"/>
+    <n v="3084000"/>
+    <n v="2902000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="493000"/>
+    <n v="461000"/>
+    <n v="278000"/>
+    <n v="259000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="693000"/>
+    <n v="602000"/>
+    <n v="411000"/>
+    <n v="363000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="684000"/>
+    <n v="616000"/>
+    <n v="484000"/>
+    <n v="452000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1354000"/>
+    <n v="1287000"/>
+    <n v="1025000"/>
+    <n v="989000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="593000"/>
+    <n v="577000"/>
+    <n v="437000"/>
+    <n v="432000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="333000"/>
+    <n v="308000"/>
+    <n v="145000"/>
+    <n v="123000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="402000"/>
+    <n v="331000"/>
+    <n v="210000"/>
+    <n v="177000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="441000"/>
+    <n v="382000"/>
+    <n v="255000"/>
+    <n v="223000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1047000"/>
+    <n v="993000"/>
+    <n v="768000"/>
+    <n v="695000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="503000"/>
+    <n v="486000"/>
+    <n v="383000"/>
+    <n v="351000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="82000"/>
+    <n v="77000"/>
+    <n v="38000"/>
+    <n v="33000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="106000"/>
+    <n v="86000"/>
+    <n v="54000"/>
+    <n v="49000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="119000"/>
+    <n v="102000"/>
+    <n v="77000"/>
+    <n v="67000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="240000"/>
+    <n v="232000"/>
+    <n v="182000"/>
+    <n v="168000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="146000"/>
+    <n v="145000"/>
+    <n v="118000"/>
+    <n v="113000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="71000"/>
+    <n v="61000"/>
+    <n v="43000"/>
+    <n v="38000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="154000"/>
+    <n v="133000"/>
+    <n v="114000"/>
+    <n v="102000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="79000"/>
+    <n v="67000"/>
+    <n v="59000"/>
+    <n v="55000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="140000"/>
+    <n v="129000"/>
+    <n v="109000"/>
+    <n v="99000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="73000"/>
+    <n v="71000"/>
+    <n v="60000"/>
+    <n v="57000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1669000"/>
+    <n v="1467000"/>
+    <n v="751000"/>
+    <n v="614000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2259000"/>
+    <n v="1903000"/>
+    <n v="1158000"/>
+    <n v="987000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="2456000"/>
+    <n v="1960000"/>
+    <n v="1335000"/>
+    <n v="1177000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="5345000"/>
+    <n v="4814000"/>
+    <n v="3474000"/>
+    <n v="3107000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="3304000"/>
+    <n v="3182000"/>
+    <n v="2384000"/>
+    <n v="2222000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="920000"/>
+    <n v="867000"/>
+    <n v="469000"/>
+    <n v="349000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="1308000"/>
+    <n v="1148000"/>
+    <n v="847000"/>
+    <n v="700000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="1341000"/>
+    <n v="1228000"/>
+    <n v="825000"/>
+    <n v="726000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="2658000"/>
+    <n v="2547000"/>
+    <n v="1886000"/>
+    <n v="1741000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="951000"/>
+    <n v="948000"/>
+    <n v="739000"/>
+    <n v="652000"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="107000"/>
+    <n v="91000"/>
+    <n v="33000"/>
+    <n v="24000"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="172000"/>
+    <n v="154000"/>
+    <n v="65000"/>
+    <n v="55000"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="166000"/>
+    <n v="153000"/>
+    <n v="83000"/>
+    <n v="69000"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="343000"/>
+    <n v="317000"/>
+    <n v="217000"/>
+    <n v="196000"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="224000"/>
+    <n v="215000"/>
+    <n v="149000"/>
+    <n v="137000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="130000"/>
+    <n v="121000"/>
+    <n v="51000"/>
+    <n v="39000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="194000"/>
+    <n v="173000"/>
+    <n v="114000"/>
+    <n v="99000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="203000"/>
+    <n v="187000"/>
+    <n v="141000"/>
+    <n v="132000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="401000"/>
+    <n v="382000"/>
+    <n v="274000"/>
+    <n v="250000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="201000"/>
+    <n v="201000"/>
+    <n v="164000"/>
+    <n v="160000"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="1228000"/>
+    <n v="1122000"/>
+    <n v="608000"/>
+    <n v="396000"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="1707000"/>
+    <n v="1480000"/>
+    <n v="1020000"/>
+    <n v="846000"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="1688000"/>
+    <n v="1481000"/>
+    <n v="1066000"/>
+    <n v="872000"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="3407000"/>
+    <n v="3182000"/>
+    <n v="2471000"/>
+    <n v="2206000"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <n v="1620000"/>
+    <n v="1566000"/>
+    <n v="1259000"/>
+    <n v="1108000"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="570000"/>
+    <n v="558000"/>
+    <n v="269000"/>
+    <n v="203000"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="861000"/>
+    <n v="800000"/>
+    <n v="462000"/>
+    <n v="356000"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="828000"/>
+    <n v="801000"/>
+    <n v="550000"/>
+    <n v="420000"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="1754000"/>
+    <n v="1733000"/>
+    <n v="1329000"/>
+    <n v="1212000"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <n v="840000"/>
+    <n v="832000"/>
+    <n v="660000"/>
+    <n v="610000"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="260000"/>
+    <n v="243000"/>
+    <n v="150000"/>
+    <n v="121000"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="402000"/>
+    <n v="379000"/>
+    <n v="276000"/>
+    <n v="238000"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="385000"/>
+    <n v="358000"/>
+    <n v="275000"/>
+    <n v="238000"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="828000"/>
+    <n v="812000"/>
+    <n v="652000"/>
+    <n v="586000"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="444000"/>
+    <n v="440000"/>
+    <n v="392000"/>
+    <n v="365000"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="294000"/>
+    <n v="262000"/>
+    <n v="127000"/>
+    <n v="88000"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="406000"/>
+    <n v="359000"/>
+    <n v="236000"/>
+    <n v="172000"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="300000"/>
+    <n v="269000"/>
+    <n v="203000"/>
+    <n v="169000"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="757000"/>
+    <n v="721000"/>
+    <n v="583000"/>
+    <n v="535000"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <n v="363000"/>
+    <n v="363000"/>
+    <n v="318000"/>
+    <n v="285000"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="446000"/>
+    <n v="437000"/>
+    <n v="225000"/>
+    <n v="165000"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="513000"/>
+    <n v="462000"/>
+    <n v="320000"/>
+    <n v="235000"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="547000"/>
+    <n v="534000"/>
+    <n v="411000"/>
+    <n v="330000"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="1173000"/>
+    <n v="1152000"/>
+    <n v="879000"/>
+    <n v="757000"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="613000"/>
+    <n v="608000"/>
+    <n v="468000"/>
+    <n v="408000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="431000"/>
+    <n v="415000"/>
+    <n v="226000"/>
+    <n v="174000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="579000"/>
+    <n v="552000"/>
+    <n v="422000"/>
+    <n v="369000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="543000"/>
+    <n v="526000"/>
+    <n v="399000"/>
+    <n v="340000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="1199000"/>
+    <n v="1184000"/>
+    <n v="968000"/>
+    <n v="846000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <n v="568000"/>
+    <n v="562000"/>
+    <n v="483000"/>
+    <n v="420000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="118000"/>
+    <n v="118000"/>
+    <n v="61000"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="134000"/>
+    <n v="131000"/>
+    <n v="93000"/>
+    <n v="78000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="157000"/>
+    <n v="149000"/>
+    <n v="117000"/>
+    <n v="101000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="413000"/>
+    <n v="407000"/>
+    <n v="329000"/>
+    <n v="300000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="219000"/>
+    <n v="215000"/>
+    <n v="187000"/>
+    <n v="170000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="585000"/>
+    <n v="558000"/>
+    <n v="301000"/>
+    <n v="246000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="777000"/>
+    <n v="621000"/>
+    <n v="439000"/>
+    <n v="393000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="721000"/>
+    <n v="590000"/>
+    <n v="434000"/>
+    <n v="396000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+    <n v="1557000"/>
+    <n v="1450000"/>
+    <n v="1107000"/>
+    <n v="1025000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="4"/>
+    <n v="809000"/>
+    <n v="787000"/>
+    <n v="607000"/>
+    <n v="550000"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="694000"/>
+    <n v="633000"/>
+    <n v="395000"/>
+    <n v="316000"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="810000"/>
+    <n v="705000"/>
+    <n v="526000"/>
+    <n v="450000"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="888000"/>
+    <n v="783000"/>
+    <n v="580000"/>
+    <n v="530000"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="1784000"/>
+    <n v="1677000"/>
+    <n v="1424000"/>
+    <n v="1327000"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="4"/>
+    <n v="994000"/>
+    <n v="975000"/>
+    <n v="833000"/>
+    <n v="759000"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="905000"/>
+    <n v="894000"/>
+    <n v="536000"/>
+    <n v="394000"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="1182000"/>
+    <n v="1107000"/>
+    <n v="830000"/>
+    <n v="629000"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="1221000"/>
+    <n v="1136000"/>
+    <n v="900000"/>
+    <n v="768000"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="3"/>
+    <n v="2676000"/>
+    <n v="2611000"/>
+    <n v="2141000"/>
+    <n v="1906000"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="4"/>
+    <n v="1512000"/>
+    <n v="1480000"/>
+    <n v="1214000"/>
+    <n v="1134000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="531000"/>
+    <n v="510000"/>
+    <n v="329000"/>
+    <n v="303000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="650000"/>
+    <n v="596000"/>
+    <n v="435000"/>
+    <n v="384000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="701000"/>
+    <n v="659000"/>
+    <n v="518000"/>
+    <n v="478000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="1410000"/>
+    <n v="1387000"/>
+    <n v="1151000"/>
+    <n v="1081000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="4"/>
+    <n v="762000"/>
+    <n v="751000"/>
+    <n v="652000"/>
+    <n v="613000"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="300000"/>
+    <n v="294000"/>
+    <n v="222000"/>
+    <n v="187000"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="397000"/>
+    <n v="390000"/>
+    <n v="333000"/>
+    <n v="279000"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="320000"/>
+    <n v="309000"/>
+    <n v="255000"/>
+    <n v="222000"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="734000"/>
+    <n v="727000"/>
+    <n v="614000"/>
+    <n v="563000"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="4"/>
+    <n v="416000"/>
+    <n v="410000"/>
+    <n v="371000"/>
+    <n v="337000"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="525000"/>
+    <n v="520000"/>
+    <n v="332000"/>
+    <n v="223000"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="857000"/>
+    <n v="809000"/>
+    <n v="585000"/>
+    <n v="448000"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="669000"/>
+    <n v="651000"/>
+    <n v="498000"/>
+    <n v="427000"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="3"/>
+    <n v="1714000"/>
+    <n v="1684000"/>
+    <n v="1344000"/>
+    <n v="1175000"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="4"/>
+    <n v="755000"/>
+    <n v="745000"/>
+    <n v="624000"/>
+    <n v="545000"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="82000"/>
+    <n v="79000"/>
+    <n v="53000"/>
+    <n v="33000"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="138000"/>
+    <n v="137000"/>
+    <n v="77000"/>
+    <n v="65000"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="109000"/>
+    <n v="105000"/>
+    <n v="69000"/>
+    <n v="62000"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="254000"/>
+    <n v="249000"/>
+    <n v="201000"/>
+    <n v="189000"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="4"/>
+    <n v="186000"/>
+    <n v="184000"/>
+    <n v="153000"/>
+    <n v="146000"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="168000"/>
+    <n v="151000"/>
+    <n v="71000"/>
+    <n v="61000"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="242000"/>
+    <n v="224000"/>
+    <n v="137000"/>
+    <n v="110000"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="235000"/>
+    <n v="218000"/>
+    <n v="145000"/>
+    <n v="128000"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="462000"/>
+    <n v="445000"/>
+    <n v="331000"/>
+    <n v="300000"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="264000"/>
+    <n v="259000"/>
+    <n v="217000"/>
+    <n v="200000"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="320000"/>
+    <n v="295000"/>
+    <n v="145000"/>
+    <n v="122000"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="364000"/>
+    <n v="310000"/>
+    <n v="189000"/>
+    <n v="158000"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="307000"/>
+    <n v="247000"/>
+    <n v="158000"/>
+    <n v="146000"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="3"/>
+    <n v="680000"/>
+    <n v="606000"/>
+    <n v="413000"/>
+    <n v="376000"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="4"/>
+    <n v="369000"/>
+    <n v="350000"/>
+    <n v="270000"/>
+    <n v="246000"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="123000"/>
+    <n v="119000"/>
+    <n v="71000"/>
+    <n v="61000"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="160000"/>
+    <n v="147000"/>
+    <n v="99000"/>
+    <n v="91000"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="150000"/>
+    <n v="143000"/>
+    <n v="100000"/>
+    <n v="90000"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="3"/>
+    <n v="425000"/>
+    <n v="414000"/>
+    <n v="337000"/>
+    <n v="312000"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="171000"/>
+    <n v="169000"/>
+    <n v="145000"/>
+    <n v="134000"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="792000"/>
+    <n v="707000"/>
+    <n v="379000"/>
+    <n v="276000"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="1068000"/>
+    <n v="842000"/>
+    <n v="556000"/>
+    <n v="475000"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="1186000"/>
+    <n v="939000"/>
+    <n v="655000"/>
+    <n v="536000"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="3"/>
+    <n v="2424000"/>
+    <n v="2217000"/>
+    <n v="1732000"/>
+    <n v="1545000"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="4"/>
+    <n v="1259000"/>
+    <n v="1224000"/>
+    <n v="1004000"/>
+    <n v="838000"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="177000"/>
+    <n v="163000"/>
+    <n v="84000"/>
+    <n v="66000"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="286000"/>
+    <n v="248000"/>
+    <n v="157000"/>
+    <n v="130000"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="257000"/>
+    <n v="224000"/>
+    <n v="139000"/>
+    <n v="123000"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="588000"/>
+    <n v="551000"/>
+    <n v="414000"/>
+    <n v="390000"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="246000"/>
+    <n v="240000"/>
+    <n v="185000"/>
+    <n v="169000"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="2028000"/>
+    <n v="1790000"/>
+    <n v="926000"/>
+    <n v="710000"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="2775000"/>
+    <n v="2171000"/>
+    <n v="1387000"/>
+    <n v="1145000"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="2334000"/>
+    <n v="1871000"/>
+    <n v="1288000"/>
+    <n v="1133000"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="3"/>
+    <n v="5217000"/>
+    <n v="4706000"/>
+    <n v="3381000"/>
+    <n v="3046000"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="4"/>
+    <n v="2712000"/>
+    <n v="2543000"/>
+    <n v="1904000"/>
+    <n v="1642000"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="863000"/>
+    <n v="779000"/>
+    <n v="496000"/>
+    <n v="389000"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="1220000"/>
+    <n v="1021000"/>
+    <n v="816000"/>
+    <n v="676000"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="2"/>
+    <n v="1320000"/>
+    <n v="1172000"/>
+    <n v="919000"/>
+    <n v="792000"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="3"/>
+    <n v="2470000"/>
+    <n v="2373000"/>
+    <n v="1925000"/>
+    <n v="1710000"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="4"/>
+    <n v="1390000"/>
+    <n v="1366000"/>
+    <n v="1138000"/>
+    <n v="1057000"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <n v="67000"/>
+    <n v="66000"/>
+    <n v="43000"/>
+    <n v="32000"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <n v="111000"/>
+    <n v="106000"/>
+    <n v="74000"/>
+    <n v="62000"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="2"/>
+    <n v="71000"/>
+    <n v="69000"/>
+    <n v="55000"/>
+    <n v="44000"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="3"/>
+    <n v="194000"/>
+    <n v="190000"/>
+    <n v="148000"/>
+    <n v="129000"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="4"/>
+    <n v="85000"/>
+    <n v="84000"/>
+    <n v="64000"/>
+    <n v="61000"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="1145000"/>
+    <n v="1105000"/>
+    <n v="629000"/>
+    <n v="511000"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <n v="1413000"/>
+    <n v="1352000"/>
+    <n v="917000"/>
+    <n v="772000"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="2"/>
+    <n v="1340000"/>
+    <n v="1274000"/>
+    <n v="903000"/>
+    <n v="772000"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="3"/>
+    <n v="3213000"/>
+    <n v="3179000"/>
+    <n v="2325000"/>
+    <n v="2159000"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="4"/>
+    <n v="1640000"/>
+    <n v="1640000"/>
+    <n v="1302000"/>
+    <n v="1181000"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <n v="325000"/>
+    <n v="323000"/>
+    <n v="130000"/>
+    <n v="88000"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+    <n v="567000"/>
+    <n v="540000"/>
+    <n v="296000"/>
+    <n v="184000"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="2"/>
+    <n v="433000"/>
+    <n v="418000"/>
+    <n v="281000"/>
+    <n v="212000"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="3"/>
+    <n v="1001000"/>
+    <n v="980000"/>
+    <n v="720000"/>
+    <n v="602000"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="4"/>
+    <n v="483000"/>
+    <n v="473000"/>
+    <n v="378000"/>
+    <n v="345000"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <n v="391000"/>
+    <n v="364000"/>
+    <n v="216000"/>
+    <n v="186000"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="1"/>
+    <n v="461000"/>
+    <n v="399000"/>
+    <n v="256000"/>
+    <n v="215000"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="2"/>
+    <n v="527000"/>
+    <n v="479000"/>
+    <n v="345000"/>
+    <n v="296000"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="3"/>
+    <n v="1004000"/>
+    <n v="961000"/>
+    <n v="756000"/>
+    <n v="709000"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="4"/>
+    <n v="616000"/>
+    <n v="604000"/>
+    <n v="513000"/>
+    <n v="491000"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="1198000"/>
+    <n v="1137000"/>
+    <n v="645000"/>
+    <n v="478000"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+    <n v="1543000"/>
+    <n v="1442000"/>
+    <n v="984000"/>
+    <n v="790000"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="2"/>
+    <n v="1520000"/>
+    <n v="1442000"/>
+    <n v="1054000"/>
+    <n v="928000"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+    <n v="3674000"/>
+    <n v="3547000"/>
+    <n v="2648000"/>
+    <n v="2331000"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+    <n v="1913000"/>
+    <n v="1883000"/>
+    <n v="1463000"/>
+    <n v="1297000"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="99000"/>
+    <n v="89000"/>
+    <n v="61000"/>
+    <n v="45000"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <n v="121000"/>
+    <n v="108000"/>
+    <n v="70000"/>
+    <n v="58000"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="2"/>
+    <n v="150000"/>
+    <n v="127000"/>
+    <n v="89000"/>
+    <n v="76000"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="3"/>
+    <n v="290000"/>
+    <n v="272000"/>
+    <n v="213000"/>
+    <n v="185000"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="4"/>
+    <n v="158000"/>
+    <n v="155000"/>
+    <n v="119000"/>
+    <n v="105000"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="474000"/>
+    <n v="451000"/>
+    <n v="265000"/>
+    <n v="243000"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+    <n v="510000"/>
+    <n v="476000"/>
+    <n v="364000"/>
+    <n v="293000"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="2"/>
+    <n v="601000"/>
+    <n v="561000"/>
+    <n v="405000"/>
+    <n v="343000"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="3"/>
+    <n v="1319000"/>
+    <n v="1289000"/>
+    <n v="956000"/>
+    <n v="866000"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="4"/>
+    <n v="612000"/>
+    <n v="604000"/>
+    <n v="489000"/>
+    <n v="442000"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="95000"/>
+    <n v="94000"/>
+    <n v="52000"/>
+    <n v="31000"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="1"/>
+    <n v="103000"/>
+    <n v="101000"/>
+    <n v="65000"/>
+    <n v="46000"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="2"/>
+    <n v="82000"/>
+    <n v="79000"/>
+    <n v="64000"/>
+    <n v="53000"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="3"/>
+    <n v="204000"/>
+    <n v="202000"/>
+    <n v="167000"/>
+    <n v="145000"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="4"/>
+    <n v="132000"/>
+    <n v="130000"/>
+    <n v="106000"/>
+    <n v="96000"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <n v="610000"/>
+    <n v="590000"/>
+    <n v="306000"/>
+    <n v="207000"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="1"/>
+    <n v="833000"/>
+    <n v="773000"/>
+    <n v="517000"/>
+    <n v="395000"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="2"/>
+    <n v="783000"/>
+    <n v="739000"/>
+    <n v="514000"/>
+    <n v="402000"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="3"/>
+    <n v="1607000"/>
+    <n v="1563000"/>
+    <n v="1081000"/>
+    <n v="904000"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="4"/>
+    <n v="1016000"/>
+    <n v="1013000"/>
+    <n v="793000"/>
+    <n v="698000"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="2538000"/>
+    <n v="2249000"/>
+    <n v="971000"/>
+    <n v="572000"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="1"/>
+    <n v="3695000"/>
+    <n v="2965000"/>
+    <n v="1734000"/>
+    <n v="1228000"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="2"/>
+    <n v="3445000"/>
+    <n v="2748000"/>
+    <n v="1839000"/>
+    <n v="1473000"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="3"/>
+    <n v="6115000"/>
+    <n v="5429000"/>
+    <n v="3981000"/>
+    <n v="3399000"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="4"/>
+    <n v="2849000"/>
+    <n v="2671000"/>
+    <n v="2225000"/>
+    <n v="1971000"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="279000"/>
+    <n v="263000"/>
+    <n v="115000"/>
+    <n v="97000"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="1"/>
+    <n v="446000"/>
+    <n v="407000"/>
+    <n v="236000"/>
+    <n v="194000"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="2"/>
+    <n v="357000"/>
+    <n v="307000"/>
+    <n v="182000"/>
+    <n v="161000"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+    <n v="592000"/>
+    <n v="576000"/>
+    <n v="396000"/>
+    <n v="375000"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="4"/>
+    <n v="242000"/>
+    <n v="240000"/>
+    <n v="208000"/>
+    <n v="195000"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="61000"/>
+    <n v="59000"/>
+    <n v="30000"/>
+    <n v="23000"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <n v="69000"/>
+    <n v="68000"/>
+    <n v="41000"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="2"/>
+    <n v="78000"/>
+    <n v="76000"/>
+    <n v="53000"/>
+    <n v="46000"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="3"/>
+    <n v="195000"/>
+    <n v="193000"/>
+    <n v="153000"/>
+    <n v="133000"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="4"/>
+    <n v="93000"/>
+    <n v="91000"/>
+    <n v="79000"/>
+    <n v="75000"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="695000"/>
+    <n v="612000"/>
+    <n v="351000"/>
+    <n v="292000"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+    <n v="1192000"/>
+    <n v="1026000"/>
+    <n v="698000"/>
+    <n v="605000"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="2"/>
+    <n v="989000"/>
+    <n v="889000"/>
+    <n v="717000"/>
+    <n v="634000"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="3"/>
+    <n v="2140000"/>
+    <n v="2050000"/>
+    <n v="1591000"/>
+    <n v="1473000"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="4"/>
+    <n v="1079000"/>
+    <n v="1069000"/>
+    <n v="853000"/>
+    <n v="774000"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="563000"/>
+    <n v="511000"/>
+    <n v="275000"/>
+    <n v="215000"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="1"/>
+    <n v="1017000"/>
+    <n v="911000"/>
+    <n v="596000"/>
+    <n v="488000"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="2"/>
+    <n v="916000"/>
+    <n v="809000"/>
+    <n v="649000"/>
+    <n v="577000"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="3"/>
+    <n v="1660000"/>
+    <n v="1570000"/>
+    <n v="1183000"/>
+    <n v="1101000"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="4"/>
+    <n v="1074000"/>
+    <n v="1032000"/>
+    <n v="830000"/>
+    <n v="791000"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="163000"/>
+    <n v="162000"/>
+    <n v="78000"/>
+    <n v="37000"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="1"/>
+    <n v="213000"/>
+    <n v="210000"/>
+    <n v="131000"/>
+    <n v="66000"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
+    <n v="237000"/>
+    <n v="237000"/>
+    <n v="162000"/>
+    <n v="111000"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="3"/>
+    <n v="479000"/>
+    <n v="475000"/>
+    <n v="326000"/>
+    <n v="253000"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="4"/>
+    <n v="361000"/>
+    <n v="359000"/>
+    <n v="286000"/>
+    <n v="222000"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="539000"/>
+    <n v="513000"/>
+    <n v="308000"/>
+    <n v="287000"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+    <n v="699000"/>
+    <n v="662000"/>
+    <n v="475000"/>
+    <n v="438000"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+    <n v="714000"/>
+    <n v="695000"/>
+    <n v="548000"/>
+    <n v="514000"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+    <n v="1552000"/>
+    <n v="1532000"/>
+    <n v="1224000"/>
+    <n v="1192000"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+    <n v="847000"/>
+    <n v="845000"/>
+    <n v="763000"/>
+    <n v="697000"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="56000"/>
+    <n v="55000"/>
+    <n v="21000"/>
+    <n v="18000"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+    <n v="73000"/>
+    <n v="71000"/>
+    <n v="44000"/>
+    <n v="39000"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="2"/>
+    <n v="68000"/>
+    <n v="66000"/>
+    <n v="41000"/>
+    <n v="36000"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="3"/>
+    <n v="155000"/>
+    <n v="154000"/>
+    <n v="101000"/>
+    <n v="95000"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="4"/>
+    <n v="74000"/>
+    <n v="73000"/>
+    <n v="61000"/>
+    <n v="59000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="valueLessThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="lessThan" val="55"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2640,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>53.27014218009478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>51.72043010752688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52.340892465252374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>53.810235338064992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>47.747747747747752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1364888-65CA-49CC-A082-C8D1E381C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE01129F-DB65-4A37-B13C-476D89BEE03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId2"/>
+    <pivotCache cacheId="17" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -125,6 +125,1029 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>State-wise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Voter Population below 55%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>53.27014218009478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.72043010752688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.340892465252374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.810235338064992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.747747747747752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-132A-4727-8533-3CDECE9F090D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1275635712"/>
+        <c:axId val="1275645312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275635712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275645312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275645312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1275635712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B93196-EB45-2759-015F-B79193DF7BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SAKSHI" refreshedDate="45086.032989004627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="255" xr:uid="{3D91E4FC-416E-4BBB-A077-4EF21A35050E}">
   <cacheSource type="worksheet">
@@ -2263,7 +3286,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -2355,6 +3378,17 @@
   <dataFields count="1">
     <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="0" type="valueLessThan" evalOrder="-1" id="1" iMeasureFld="0">
@@ -2641,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,7 +3745,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2721,5 +3758,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE01129F-DB65-4A37-B13C-476D89BEE03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B04266F-351E-4F86-8DB3-22F6C820C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId2"/>
+    <pivotCache cacheId="18" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
     <t>% of Voter Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2. </t>
+    <t>Q2. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
 </sst>
 </file>
@@ -3286,7 +3286,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -3677,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3747,14 +3747,18 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B04266F-351E-4F86-8DB3-22F6C820C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E4A12-C276-4771-8A0A-B0C4A62CA620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId2"/>
+    <pivotCache cacheId="24" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -562,6 +562,414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>53.27014218009478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.72043010752688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.340892465252374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.810235338064992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.747747747747752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AFB-44A4-8F59-2B64C1299AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1527755632"/>
+        <c:axId val="1275642912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1527755632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275642912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275642912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1527755632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -602,7 +1010,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1140,6 +2093,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C56C92-EBD6-5CD7-E475-0736A2DEDC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3286,8 +4275,135 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="valueLessThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="lessThan" val="55"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59AE6EF4-F4DE-405D-A981-98DE0F688476}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="52">
@@ -3675,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,13 +4871,61 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>53.27014218009478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>51.72043010752688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>52.340892465252374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>53.810235338064992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>47.747747747747752</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E4A12-C276-4771-8A0A-B0C4A62CA620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A144E-D590-467F-96E3-B1BA58BC2E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId2"/>
+    <pivotCache cacheId="25" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -581,6 +581,38 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>State-wise Voter Population below 55%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -657,8 +689,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -699,6 +732,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$23:$A$27</c:f>
@@ -753,8 +844,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -820,7 +912,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -840,33 +932,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1527755632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -879,37 +944,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -955,9 +989,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -4275,7 +4306,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -4402,7 +4433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59AE6EF4-F4DE-405D-A981-98DE0F688476}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59AE6EF4-F4DE-405D-A981-98DE0F688476}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -4793,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A144E-D590-467F-96E3-B1BA58BC2E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE4433-0676-479F-9959-0058001EB47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId2"/>
+    <pivotCache cacheId="13" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -54,7 +54,31 @@
     <t>% of Voter Population</t>
   </si>
   <si>
-    <t>Q2. How many states had a Voter Population % below 55%? Which states?</t>
+    <t>Q2. How many confirmed voters in CA were over 65 years old in 2012? What percentage does that represent out of the total confirmed voters in CA? What percentage out of the confirmed voters in the entire country?</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Confirmed Voters</t>
+  </si>
+  <si>
+    <t>18 to 24</t>
+  </si>
+  <si>
+    <t>25 to 34</t>
+  </si>
+  <si>
+    <t>35 to 44</t>
+  </si>
+  <si>
+    <t>45 to 64</t>
+  </si>
+  <si>
+    <t>65+</t>
   </si>
 </sst>
 </file>
@@ -98,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -107,6 +131,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,486 +593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable2</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>State-wise Voter Population below 55%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$23:$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Arkansas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Hawaii</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oklahoma</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Texas</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>West Virginia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>53.27014218009478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.72043010752688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.340892465252374</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.810235338064992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.747747747747752</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AFB-44A4-8F59-2B64C1299AD8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1527755632"/>
-        <c:axId val="1275642912"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1527755632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1275642912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1275642912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1527755632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1586,525 +1138,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2124,42 +1171,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C56C92-EBD6-5CD7-E475-0736A2DEDC2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4306,121 +3317,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCDD507F-CC94-4C9C-8837-56CF1EE466A6}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A23:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+    <pivotField axis="axisRow" showAll="0">
       <items count="52">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="7">
     <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
-    <i>
-      <x v="11"/>
+    <i r="1">
+      <x v="4"/>
     </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="48"/>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="4"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="valueLessThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="lessThan" val="55"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -4433,8 +3438,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59AE6EF4-F4DE-405D-A981-98DE0F688476}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="52">
@@ -4822,28 +3827,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D27"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4851,7 +3858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4859,7 +3866,7 @@
         <v>53.27014218009478</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4867,7 +3874,7 @@
         <v>51.72043010752688</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4875,7 +3882,7 @@
         <v>52.340892465252374</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4883,7 +3890,7 @@
         <v>53.810235338064992</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4891,69 +3898,99 @@
         <v>47.747747747747752</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
+      <c r="B23" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>53.27014218009478</v>
+      <c r="B24" s="6">
+        <v>13463000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="B24" s="3">
-        <v>51.72043010752688</v>
+      <c r="B25" s="6">
+        <v>1447000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="B25" s="3">
-        <v>52.340892465252374</v>
+      <c r="B26" s="6">
+        <v>2070000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="B26" s="3">
-        <v>53.810235338064992</v>
+      <c r="B27" s="6">
+        <v>2118000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="B27" s="3">
-        <v>47.747747747747752</v>
+      <c r="B28" s="6">
+        <v>4926000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2902000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6">
+        <v>13463000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE4433-0676-479F-9959-0058001EB47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A533783-A68C-4861-BA86-96E1F89BAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId2"/>
+    <pivotCache cacheId="34" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -57,28 +57,7 @@
     <t>Q2. How many confirmed voters in CA were over 65 years old in 2012? What percentage does that represent out of the total confirmed voters in CA? What percentage out of the confirmed voters in the entire country?</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Confirmed Voters</t>
-  </si>
-  <si>
-    <t>18 to 24</t>
-  </si>
-  <si>
-    <t>25 to 34</t>
-  </si>
-  <si>
-    <t>35 to 44</t>
-  </si>
-  <si>
-    <t>45 to 64</t>
-  </si>
-  <si>
-    <t>65+</t>
   </si>
 </sst>
 </file>
@@ -122,28 +101,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -170,7 +158,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -181,7 +169,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -194,14 +182,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>State-wise</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Voter Population below 55%</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Voter Population below 55% </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -218,7 +206,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -384,7 +372,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$9</c:f>
+              <c:f>Sheet1!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -407,31 +395,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$9</c:f>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>53.27014218009478</c:v>
+                  <c:v>0.53270142180094782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.72043010752688</c:v>
+                  <c:v>0.51720430107526882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.340892465252374</c:v>
+                  <c:v>0.52340892465252375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.810235338064992</c:v>
+                  <c:v>0.53810235338064993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.747747747747752</c:v>
+                  <c:v>0.47747747747747749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-132A-4727-8533-3CDECE9F090D}"/>
+              <c16:uniqueId val="{00000000-B275-472D-BEED-8ACAE7803896}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -445,11 +433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1275635712"/>
-        <c:axId val="1275645312"/>
+        <c:axId val="771495455"/>
+        <c:axId val="771496895"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1275635712"/>
+        <c:axId val="771495455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1275645312"/>
+        <c:crossAx val="771496895"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -500,7 +488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1275645312"/>
+        <c:axId val="771496895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,11 +508,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1275635712"/>
+        <c:crossAx val="771495455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1143,22 +1131,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B93196-EB45-2759-015F-B79193DF7BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEBC841-52F7-3AF5-6B5F-3891BE775034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1249,7 @@
     <cacheField name="Confirmed Voters" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18000" maxValue="4926000"/>
     </cacheField>
-    <cacheField name="Voter Population" numFmtId="0" formula="('Confirmed Voters'/'Citizen Population')*100" databaseField="0"/>
+    <cacheField name="Voter Population" numFmtId="0" formula="'Confirmed Voters'/'Citizen Population'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -3317,129 +3305,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCDD507F-CC94-4C9C-8837-56CF1EE466A6}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A23:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="52">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="29"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="43"/>
-        <item h="1" x="44"/>
-        <item h="1" x="45"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1A141E-18FD-4791-BF8E-E5D685D22982}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="52">
@@ -3507,7 +3374,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x v="3"/>
     </i>
@@ -3523,13 +3390,21 @@
     <i>
       <x v="48"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -3543,11 +3418,11 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="valueLessThan" evalOrder="-1" id="1" iMeasureFld="0">
+    <filter fld="0" type="valueLessThan" evalOrder="-1" id="3" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters>
-            <customFilter operator="lessThan" val="55"/>
+            <customFilter operator="lessThan" val="0.55000000000000004"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -3827,28 +3702,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3862,138 +3739,112 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>53.27014218009478</v>
+      <c r="B5" s="5">
+        <v>0.53270142180094782</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>51.72043010752688</v>
+      <c r="B6" s="5">
+        <v>0.51720430107526882</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>52.340892465252374</v>
+      <c r="B7" s="5">
+        <v>0.52340892465252375</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>53.810235338064992</v>
+      <c r="B8" s="5">
+        <v>0.53810235338064993</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>47.747747747747752</v>
+      <c r="B9" s="5">
+        <v>0.47747747747747749</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.53129429958331542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6">
-        <v>13463000</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1447000</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2070000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2118000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="6">
-        <v>4926000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2902000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="6">
-        <v>13463000</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A533783-A68C-4861-BA86-96E1F89BAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C8C823-54EA-485C-9568-4FB90E7583EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId2"/>
+    <pivotCache cacheId="45" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -58,6 +58,168 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District Of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>18 to 24</t>
+  </si>
+  <si>
+    <t>25 to 34</t>
+  </si>
+  <si>
+    <t>35 to 44</t>
+  </si>
+  <si>
+    <t>45 to 64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>Sum of Confirmed Voters</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>% of Confirmed Voters</t>
   </si>
 </sst>
 </file>
@@ -81,12 +243,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,33 +269,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1130,14 +1290,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3305,7 +3465,370 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H24:I76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="52">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Confirmed Voters" fld="5" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D24:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -3401,7 +3924,7 @@
     <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3428,6 +3951,127 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -3702,20 +4346,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3739,7 +4386,7 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.53270142180094782</v>
       </c>
     </row>
@@ -3747,7 +4394,7 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.51720430107526882</v>
       </c>
     </row>
@@ -3755,7 +4402,7 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.52340892465252375</v>
       </c>
     </row>
@@ -3763,7 +4410,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.53810235338064993</v>
       </c>
     </row>
@@ -3771,7 +4418,7 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.47747747747747749</v>
       </c>
     </row>
@@ -3779,72 +4426,542 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.53129429958331542</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>13463000</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1447000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2070000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2902000</v>
+      </c>
+      <c r="F25" s="8">
+        <f>GETPIVOTDATA("Confirmed Voters",$D$24,"State","California")/GETPIVOTDATA("Confirmed Voters",$A$22)</f>
+        <v>0.21555373987967022</v>
+      </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.5483218080620679E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2118000</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.7203575645134087E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4926000</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.0441895766571093E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2902000</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9.0065778377466689E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13463000</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="4">
+        <v>9.7891718670939445E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.457244054646652E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.1840107944004048E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3.8117726429414741E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.9227525721032214E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7.4953617810760667E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2.1993590824759657E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>4.6213526733007255E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5.3972002023950074E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3.7375611401585428E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2.0576825771630967E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.2312362961713612E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="4">
+        <v>9.6137628605161077E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.376286051610727E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.4167650531286895E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="4">
+        <v>5.7345252150446955E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.8552875695732839E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2.5602968460111317E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3.8252656434474619E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2.0678023275425873E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.1367852926294485E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.8384213189407996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="4">
+        <v>4.924945184685444E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="4">
+        <v>6.7465002529937595E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="4">
+        <v>8.2981953111823242E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="4">
+        <v>4.5201551695058188E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2.8267836060043853E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="4">
+        <v>5.7007927137797268E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="4">
+        <v>5.5388767077078765E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="4">
+        <v>3.5655253837072021E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2.0576825771630967E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="4">
+        <v>3.9838083993928151E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.1637712936414236E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1.656265812109968E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="4">
+        <v>4.3751054140664533E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="4">
+        <v>3.5419126328217238E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1.4909765559116208E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="4">
+        <v>3.2383201214370044E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2.3545285882948221E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="4">
+        <v>6.64867599932535E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="4">
+        <v>6.5778377466689155E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2.5299375948726597E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="4">
+        <v>2.610895597908585E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" s="4">
+        <v>2.668240850059032E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="4">
+        <v>7.4886152808230728E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I74" s="4">
+        <v>2.3511553381683252E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1.9902175746331591E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C8C823-54EA-485C-9568-4FB90E7583EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925E327-F592-4295-9BA8-9DF762E6987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId2"/>
+    <pivotCache cacheId="46" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,9 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +740,486 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>California Confirmed Voters by Age Group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$26:$A$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>18 to 24</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25 to 34</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>35 to 44</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>45 to 64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>65+</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>California</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1447000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2070000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2118000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4926000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2902000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24AB-4F2E-8FCB-46A7437E9708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428039039"/>
+        <c:axId val="428026559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428039039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428026559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428026559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="428039039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1286,20 +1764,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1319,6 +2300,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8C3399-B076-9617-E6A9-E69D83992326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3465,506 +4482,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H24:I76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="52">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="52">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Confirmed Voters" fld="5" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D24:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="52">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="29"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="43"/>
-        <item h="1" x="44"/>
-        <item h="1" x="45"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="52">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="valueLessThan" evalOrder="-1" id="3" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="lessThan" val="0.55000000000000004"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A25:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="52">
@@ -4071,7 +4590,516 @@
   <dataFields count="1">
     <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H27:I79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="52">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Confirmed Voters" fld="5" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D27:E28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="valueLessThan" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="lessThan" val="0.55000000000000004"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -4346,10 +5374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I76"/>
+  <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4430,532 +5458,532 @@
         <v>0.53129429958331542</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="H22" s="1" t="s">
+      <c r="F25" s="3"/>
+      <c r="H25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B26" s="7">
         <v>13463000</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1447000</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2070000</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2902000</v>
-      </c>
-      <c r="F25" s="8">
-        <f>GETPIVOTDATA("Confirmed Voters",$D$24,"State","California")/GETPIVOTDATA("Confirmed Voters",$A$22)</f>
-        <v>0.21555373987967022</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1.5483218080620679E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2118000</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1.7203575645134087E-3</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="6">
-        <v>4926000</v>
+        <v>56</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1447000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2.0441895766571093E-2</v>
+      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2070000</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
         <v>2902000</v>
+      </c>
+      <c r="F28" s="4">
+        <f>GETPIVOTDATA("Confirmed Voters",$D$27,"State","California")/GETPIVOTDATA("Confirmed Voters",$A$25)</f>
+        <v>0.21555373987967022</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4">
-        <v>9.0065778377466689E-3</v>
+        <v>1.5483218080620679E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="6">
-        <v>13463000</v>
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2118000</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="4">
-        <v>9.7891718670939445E-2</v>
+        <v>1.7203575645134087E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4926000</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.0441895766571093E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2902000</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>9.0065778377466689E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7">
+        <v>13463000</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="4">
+        <v>9.7891718670939445E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="3"/>
+      <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I33" s="4">
         <v>1.457244054646652E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H31" s="2" t="s">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I34" s="4">
         <v>1.1840107944004048E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="2" t="s">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I35" s="4">
         <v>3.8117726429414741E-3</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="2" t="s">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I36" s="4">
         <v>1.9227525721032214E-3</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="2" t="s">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I37" s="4">
         <v>7.4953617810760667E-2</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="2" t="s">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I38" s="4">
         <v>2.1993590824759657E-2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="2" t="s">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I39" s="4">
         <v>4.6213526733007255E-3</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="2" t="s">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I40" s="4">
         <v>5.3972002023950074E-3</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="2" t="s">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I41" s="4">
         <v>3.7375611401585428E-2</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H39" s="2" t="s">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I42" s="4">
         <v>2.0576825771630967E-2</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H40" s="2" t="s">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I43" s="4">
         <v>1.2312362961713612E-2</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H41" s="2" t="s">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I44" s="4">
         <v>9.6137628605161077E-3</v>
       </c>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H42" s="2" t="s">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I45" s="4">
         <v>1.376286051610727E-2</v>
       </c>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H43" s="2" t="s">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I46" s="4">
         <v>1.4167650531286895E-2</v>
       </c>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="2" t="s">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I47" s="4">
         <v>5.7345252150446955E-3</v>
       </c>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H45" s="2" t="s">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I48" s="4">
         <v>1.8552875695732839E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="4">
-        <v>2.5602968460111317E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="4">
-        <v>3.8252656434474619E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="4">
-        <v>2.0678023275425873E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I49" s="4">
-        <v>1.1367852926294485E-2</v>
+        <v>2.5602968460111317E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I50" s="4">
-        <v>1.8384213189407996E-2</v>
+        <v>3.8252656434474619E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I51" s="4">
-        <v>4.924945184685444E-3</v>
+        <v>2.0678023275425873E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I52" s="4">
-        <v>6.7465002529937595E-3</v>
+        <v>1.1367852926294485E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I53" s="4">
-        <v>8.2981953111823242E-3</v>
+        <v>1.8384213189407996E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I54" s="4">
-        <v>4.5201551695058188E-3</v>
+        <v>4.924945184685444E-3</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I55" s="4">
-        <v>2.8267836060043853E-2</v>
+        <v>6.7465002529937595E-3</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I56" s="4">
-        <v>5.7007927137797268E-3</v>
+        <v>8.2981953111823242E-3</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I57" s="4">
-        <v>5.5388767077078765E-2</v>
+        <v>4.5201551695058188E-3</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I58" s="4">
-        <v>3.5655253837072021E-2</v>
+        <v>2.8267836060043853E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I59" s="4">
-        <v>2.0576825771630967E-3</v>
+        <v>5.7007927137797268E-3</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I60" s="4">
-        <v>3.9838083993928151E-2</v>
+        <v>5.5388767077078765E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I61" s="4">
-        <v>1.1637712936414236E-2</v>
+        <v>3.5655253837072021E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I62" s="4">
-        <v>1.656265812109968E-2</v>
+        <v>2.0576825771630967E-3</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I63" s="4">
-        <v>4.3751054140664533E-2</v>
+        <v>3.9838083993928151E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I64" s="4">
-        <v>3.5419126328217238E-3</v>
+        <v>1.1637712936414236E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I65" s="4">
-        <v>1.4909765559116208E-2</v>
+        <v>1.656265812109968E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I66" s="4">
-        <v>3.2383201214370044E-3</v>
+        <v>4.3751054140664533E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I67" s="4">
-        <v>2.3545285882948221E-2</v>
+        <v>3.5419126328217238E-3</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I68" s="4">
-        <v>6.64867599932535E-2</v>
+        <v>1.4909765559116208E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I69" s="4">
-        <v>6.5778377466689155E-3</v>
+        <v>3.2383201214370044E-3</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I70" s="4">
-        <v>2.5299375948726597E-3</v>
+        <v>2.3545285882948221E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="I71" s="4">
-        <v>2.610895597908585E-2</v>
+        <v>6.64867599932535E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I72" s="4">
-        <v>2.668240850059032E-2</v>
+        <v>6.5778377466689155E-3</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I73" s="4">
-        <v>7.4886152808230728E-3</v>
+        <v>2.5299375948726597E-3</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I74" s="4">
-        <v>2.3511553381683252E-2</v>
+        <v>2.610895597908585E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I75" s="4">
-        <v>1.9902175746331591E-3</v>
+        <v>2.668240850059032E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="4">
+        <v>7.4886152808230728E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I77" s="4">
+        <v>2.3511553381683252E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1.9902175746331591E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I79" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925E327-F592-4295-9BA8-9DF762E6987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB283E0-ABC3-4325-84AC-D08BF485D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -221,6 +221,12 @@
   <si>
     <t>% of Confirmed Voters</t>
   </si>
+  <si>
+    <t xml:space="preserve">Q3. Show both Citizen Population and Confirmed Voters by Age, as % of Column Total. What percentage of the citizen population do 45- to 64-year-old represent? What percentage of the confirmed voter population?   </t>
+  </si>
+  <si>
+    <t>Sum of Citizen Population</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -281,7 +287,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,6 +1184,671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Citizen and Confirmed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Voters Population in % by Age Group</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Citizen Population</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$87:$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18 to 24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25 to 34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35 to 44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45 to 64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$87:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12802845386707581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16493014389659902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15931375967640701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35632889322825861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19139874933165957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E94C-4139-AF0C-43229BA63D35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Confirmed Voters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$87:$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18 to 24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25 to 34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35 to 44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45 to 64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$87:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5376677297069617E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1427432456826524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15768848907876526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39121637884349236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22297520909802035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E94C-4139-AF0C-43229BA63D35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1454105280"/>
+        <c:axId val="1454096640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1454105280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454096640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454096640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1454105280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1259,6 +1929,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2235,6 +2945,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2336,6 +3551,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21FE6B6-1828-33C5-5E56-19D9735D8E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4482,7 +5733,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A86:C92" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Citizen Population" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Confirmed Voters" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A25:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4613,8 +5955,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H27:I79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4871,8 +6213,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D27:E28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4976,8 +6318,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -5374,17 +6716,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I79"/>
+  <dimension ref="A2:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -5494,7 +6836,7 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>13463000</v>
       </c>
       <c r="D26" s="3"/>
@@ -5505,7 +6847,7 @@
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>1447000</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -5529,7 +6871,7 @@
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>2070000</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -5554,7 +6896,7 @@
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>2118000</v>
       </c>
       <c r="G29" s="3"/>
@@ -5569,7 +6911,7 @@
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>4926000</v>
       </c>
       <c r="G30" s="3"/>
@@ -5584,7 +6926,7 @@
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>2902000</v>
       </c>
       <c r="G31" s="3"/>
@@ -5599,7 +6941,7 @@
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>13463000</v>
       </c>
       <c r="G32" s="3"/>
@@ -5987,9 +7329,91 @@
         <v>1</v>
       </c>
     </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.12802845386707581</v>
+      </c>
+      <c r="C87" s="4">
+        <v>8.5376677297069617E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.16493014389659902</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.1427432456826524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.15931375967640701</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.15768848907876526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.35632889322825861</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.39121637884349236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.19139874933165957</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.22297520909802035</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB283E0-ABC3-4325-84AC-D08BF485D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC53C0-6BE7-46BF-889C-1F88D27D7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="12" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Sum of Citizen Population</t>
+  </si>
+  <si>
+    <t>Q4. As a politician seeking to improve voter turnout rates among young adults (18-24), which states would you target first?</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Sheet1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -536,7 +539,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$10</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -559,7 +562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$10</c:f>
+              <c:f>Sheet1!$B$6:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -889,7 +892,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
+              <c:f>Sheet1!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -968,7 +971,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$26:$A$32</c:f>
+              <c:f>Sheet1!$A$27:$A$33</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -998,7 +1001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$32</c:f>
+              <c:f>Sheet1!$B$27:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1393,7 +1396,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$86</c:f>
+              <c:f>Sheet1!$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1472,7 +1475,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$87:$A$92</c:f>
+              <c:f>Sheet1!$A$89:$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1495,7 +1498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$87:$B$92</c:f>
+              <c:f>Sheet1!$B$89:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1528,7 +1531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$86</c:f>
+              <c:f>Sheet1!$C$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1607,7 +1610,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$87:$A$92</c:f>
+              <c:f>Sheet1!$A$89:$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1630,7 +1633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$87:$C$92</c:f>
+              <c:f>Sheet1!$C$89:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1666,7 +1669,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="120"/>
         <c:overlap val="100"/>
         <c:axId val="1454105280"/>
         <c:axId val="1454096640"/>
@@ -3488,13 +3491,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3524,13 +3527,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3560,14 +3563,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5733,8 +5736,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A86:C92" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A88:C94" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -5824,8 +5827,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A25:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A26:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="52">
@@ -5956,8 +5959,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H27:I79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H28:I80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="52">
@@ -6214,8 +6217,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D27:E28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D28:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="52">
@@ -6319,8 +6322,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="52">
@@ -6716,10 +6719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I92"/>
+  <dimension ref="A2:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6744,671 +6747,686 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.53270142180094782</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>0.51720430107526882</v>
+        <v>0.53270142180094782</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>0.52340892465252375</v>
+        <v>0.51720430107526882</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>0.53810235338064993</v>
+        <v>0.52340892465252375</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>0.47747747747747749</v>
+        <v>0.53810235338064993</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.47747747747747749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>0.53129429958331542</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="H25" s="1" t="s">
+      <c r="F26" s="3"/>
+      <c r="H26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>13463000</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27">
-        <v>1447000</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28">
-        <v>2070000</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>2902000</v>
-      </c>
-      <c r="F28" s="4">
-        <f>GETPIVOTDATA("Confirmed Voters",$D$27,"State","California")/GETPIVOTDATA("Confirmed Voters",$A$25)</f>
-        <v>0.21555373987967022</v>
+        <v>1447000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1.5483218080620679E-2</v>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
-        <v>2118000</v>
+        <v>2070000</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>2902000</v>
+      </c>
+      <c r="F29" s="4">
+        <f>GETPIVOTDATA("Confirmed Voters",$D$28,"State","California")/GETPIVOTDATA("Confirmed Voters",$A$26)</f>
+        <v>0.21555373987967022</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4">
-        <v>1.7203575645134087E-3</v>
+        <v>1.5483218080620679E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>4926000</v>
+        <v>2118000</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="4">
-        <v>2.0441895766571093E-2</v>
+        <v>1.7203575645134087E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>2902000</v>
+        <v>4926000</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I31" s="4">
-        <v>9.0065778377466689E-3</v>
+        <v>2.0441895766571093E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
+      <c r="A32" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>13463000</v>
+        <v>2902000</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4">
-        <v>9.7891718670939445E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+        <v>9.0065778377466689E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>13463000</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="4">
+        <v>9.7891718670939445E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="3"/>
+      <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>1.457244054646652E-2</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="2" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>1.1840107944004048E-2</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="2" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <v>3.8117726429414741E-3</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="2" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I37" s="4">
         <v>1.9227525721032214E-3</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="2" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I38" s="4">
         <v>7.4953617810760667E-2</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="2" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I39" s="4">
         <v>2.1993590824759657E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H39" s="2" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>4.6213526733007255E-3</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H40" s="2" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I41" s="4">
         <v>5.3972002023950074E-3</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H41" s="2" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="4">
         <v>3.7375611401585428E-2</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H42" s="2" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I43" s="4">
         <v>2.0576825771630967E-2</v>
       </c>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H43" s="2" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="4">
         <v>1.2312362961713612E-2</v>
       </c>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="2" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I45" s="4">
         <v>9.6137628605161077E-3</v>
       </c>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H45" s="2" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>1.376286051610727E-2</v>
       </c>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H46" s="2" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I47" s="4">
         <v>1.4167650531286895E-2</v>
       </c>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="2" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="4">
         <v>5.7345252150446955E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1.8552875695732839E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I49" s="4">
-        <v>2.5602968460111317E-2</v>
+        <v>1.8552875695732839E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" s="4">
-        <v>3.8252656434474619E-2</v>
+        <v>2.5602968460111317E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I51" s="4">
-        <v>2.0678023275425873E-2</v>
+        <v>3.8252656434474619E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I52" s="4">
-        <v>1.1367852926294485E-2</v>
+        <v>2.0678023275425873E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I53" s="4">
-        <v>1.8384213189407996E-2</v>
+        <v>1.1367852926294485E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" s="4">
-        <v>4.924945184685444E-3</v>
+        <v>1.8384213189407996E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55" s="4">
-        <v>6.7465002529937595E-3</v>
+        <v>4.924945184685444E-3</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I56" s="4">
-        <v>8.2981953111823242E-3</v>
+        <v>6.7465002529937595E-3</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I57" s="4">
-        <v>4.5201551695058188E-3</v>
+        <v>8.2981953111823242E-3</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="4">
-        <v>2.8267836060043853E-2</v>
+        <v>4.5201551695058188E-3</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="4">
-        <v>5.7007927137797268E-3</v>
+        <v>2.8267836060043853E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I60" s="4">
-        <v>5.5388767077078765E-2</v>
+        <v>5.7007927137797268E-3</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I61" s="4">
-        <v>3.5655253837072021E-2</v>
+        <v>5.5388767077078765E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" s="4">
-        <v>2.0576825771630967E-3</v>
+        <v>3.5655253837072021E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I63" s="4">
-        <v>3.9838083993928151E-2</v>
+        <v>2.0576825771630967E-3</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I64" s="4">
-        <v>1.1637712936414236E-2</v>
+        <v>3.9838083993928151E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="I65" s="4">
-        <v>1.656265812109968E-2</v>
+        <v>1.1637712936414236E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I66" s="4">
-        <v>4.3751054140664533E-2</v>
+        <v>1.656265812109968E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I67" s="4">
-        <v>3.5419126328217238E-3</v>
+        <v>4.3751054140664533E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" s="4">
-        <v>1.4909765559116208E-2</v>
+        <v>3.5419126328217238E-3</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" s="4">
-        <v>3.2383201214370044E-3</v>
+        <v>1.4909765559116208E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I70" s="4">
-        <v>2.3545285882948221E-2</v>
+        <v>3.2383201214370044E-3</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I71" s="4">
-        <v>6.64867599932535E-2</v>
+        <v>2.3545285882948221E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I72" s="4">
-        <v>6.5778377466689155E-3</v>
+        <v>6.64867599932535E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I73" s="4">
-        <v>2.5299375948726597E-3</v>
+        <v>6.5778377466689155E-3</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I74" s="4">
-        <v>2.610895597908585E-2</v>
+        <v>2.5299375948726597E-3</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I75" s="4">
-        <v>2.668240850059032E-2</v>
+        <v>2.610895597908585E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I76" s="4">
-        <v>7.4886152808230728E-3</v>
+        <v>2.668240850059032E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="I77" s="4">
-        <v>2.3511553381683252E-2</v>
+        <v>7.4886152808230728E-3</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I78" s="4">
-        <v>1.9902175746331591E-3</v>
+        <v>2.3511553381683252E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1.9902175746331591E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>65</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.12802845386707581</v>
-      </c>
-      <c r="C87" s="4">
-        <v>8.5376677297069617E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.16493014389659902</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.1427432456826524</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B89" s="4">
-        <v>0.15931375967640701</v>
+        <v>0.12802845386707581</v>
       </c>
       <c r="C89" s="4">
-        <v>0.15768848907876526</v>
+        <v>8.5376677297069617E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B90" s="4">
-        <v>0.35632889322825861</v>
+        <v>0.16493014389659902</v>
       </c>
       <c r="C90" s="4">
-        <v>0.39121637884349236</v>
+        <v>0.1427432456826524</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B91" s="4">
-        <v>0.19139874933165957</v>
+        <v>0.15931375967640701</v>
       </c>
       <c r="C91" s="4">
-        <v>0.22297520909802035</v>
+        <v>0.15768848907876526</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.35632889322825861</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.39121637884349236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.19139874933165957</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.22297520909802035</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C94" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC53C0-6BE7-46BF-889C-1F88D27D7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6EB0F-0517-474A-8E0B-9A0A9B6B9833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId2"/>
+    <pivotCache cacheId="23" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Q1. How many states had a Voter Population % below 55%? Which states?</t>
   </si>
@@ -230,6 +231,9 @@
   <si>
     <t>Q4. As a politician seeking to improve voter turnout rates among young adults (18-24), which states would you target first?</t>
   </si>
+  <si>
+    <t>% of Voter Turnout</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -290,11 +294,36 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1852,6 +1881,555 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>States with Lower Voter Turnouts (%) </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Age-Group (18-24)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$111:$A$115</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$111:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.47435897435897434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58908341915550977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59615384615384615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D60-46E1-9507-C3CF2238CB93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1886259408"/>
+        <c:axId val="1886252688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1886259408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886252688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886252688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1886259408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1972,6 +2550,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2982,6 +3600,511 @@
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3598,12 +4721,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582E960E-47CE-40F3-8D3E-C5E5BBA5F383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SAKSHI" refreshedDate="45086.032989004627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="255" xr:uid="{3D91E4FC-416E-4BBB-A077-4EF21A35050E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F256" sheet="U.S. Voters (2012)" r:id="rId2"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="State" numFmtId="0">
       <sharedItems count="51">
         <s v="Alabama"/>
@@ -3681,6 +4847,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18000" maxValue="4926000"/>
     </cacheField>
     <cacheField name="Voter Population" numFmtId="0" formula="'Confirmed Voters'/'Citizen Population'" databaseField="0"/>
+    <cacheField name="Voter Turnout" numFmtId="0" formula="'Confirmed Voters'/'Registered Voters'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -5736,11 +6903,75 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A88:C94" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5457F27-E467-49C2-9900-904DCFBA8F6A}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A110:B115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -5751,51 +6982,48 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="48"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="41"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Citizen Population" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Sum of Confirmed Voters" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="% of Voter Turnout" fld="7" baseField="0" baseItem="1" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5808,13 +7036,33 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="valueLessThan" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="lessThan" val="0.6"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5827,141 +7075,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A26:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="52">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="29"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="43"/>
-        <item h="1" x="44"/>
-        <item h="1" x="45"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H28:I80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="52">
         <item x="0"/>
@@ -6032,6 +7148,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -6216,10 +7333,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D28:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="52">
         <item h="1" x="0"/>
@@ -6291,6 +7408,7 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -6321,10 +7439,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="52">
         <item x="0"/>
@@ -6387,6 +7505,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -6418,7 +7537,7 @@
     <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6445,6 +7564,231 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A88:C94" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Citizen Population" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Confirmed Voters" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A26:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6719,16 +8063,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I105"/>
+  <dimension ref="A2:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -6846,7 +8190,7 @@
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>13463000</v>
       </c>
       <c r="D27" s="3"/>
@@ -6857,7 +8201,7 @@
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>1447000</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -6881,13 +8225,13 @@
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>2070000</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>2902000</v>
       </c>
       <c r="F29" s="4">
@@ -6906,7 +8250,7 @@
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>2118000</v>
       </c>
       <c r="G30" s="3"/>
@@ -6921,7 +8265,7 @@
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>4926000</v>
       </c>
       <c r="G31" s="3"/>
@@ -6936,7 +8280,7 @@
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>2902000</v>
       </c>
       <c r="G32" s="3"/>
@@ -6951,7 +8295,7 @@
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>13463000</v>
       </c>
       <c r="G33" s="3"/>
@@ -7424,14 +8768,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.47435897435897434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.58908341915550977</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.59615384615384615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.57864710676446618</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1E2347-1B0C-42E3-80F7-0B1E82BB9A92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data_Analysis_Excel.xlsx
+++ b/Data_Analysis_Excel.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Practice Case Studies\Excel Case Studies from Google\Data Analysis using Excel\Data_Analysis_Excel_Case_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6EB0F-0517-474A-8E0B-9A0A9B6B9833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AD596-D042-4807-9A57-1EC7C1DD4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="U.S. Voters Pivot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -282,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,33 +293,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -354,7 +331,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable6</c:name>
+    <c:name>[Data_Analysis_Excel.xlsx]U.S. Voters Pivot!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -489,7 +466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -568,7 +545,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:f>'U.S. Voters Pivot'!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -591,7 +568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$11</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$6:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -791,7 +768,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable7</c:name>
+    <c:name>[Data_Analysis_Excel.xlsx]U.S. Voters Pivot!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -921,7 +898,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1000,7 +977,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$27:$A$33</c:f>
+              <c:f>'U.S. Voters Pivot'!$A$27:$A$33</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -1030,7 +1007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$33</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$27:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1230,7 +1207,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[Data_Analysis_Excel.xlsx]U.S. Voters Pivot!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1425,7 +1402,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$88</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1504,7 +1481,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$89:$A$94</c:f>
+              <c:f>'U.S. Voters Pivot'!$A$89:$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1527,7 +1504,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$89:$B$94</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$89:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1560,7 +1537,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$88</c:f>
+              <c:f>'U.S. Voters Pivot'!$C$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1639,7 +1616,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$89:$A$94</c:f>
+              <c:f>'U.S. Voters Pivot'!$A$89:$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1662,7 +1639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$89:$C$94</c:f>
+              <c:f>'U.S. Voters Pivot'!$C$89:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1895,8 +1872,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data_Analysis_Excel.xlsx]Sheet1!PivotTable2</c:name>
-    <c:fmtId val="2"/>
+    <c:name>[Data_Analysis_Excel.xlsx]U.S. Voters Pivot!PivotTable2</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -2136,6 +2113,120 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2148,7 +2239,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$110</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$110</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2227,7 +2318,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$111:$A$115</c:f>
+              <c:f>'U.S. Voters Pivot'!$A$111:$A$115</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2247,7 +2338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$111:$B$115</c:f>
+              <c:f>'U.S. Voters Pivot'!$B$111:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2268,7 +2359,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D60-46E1-9507-C3CF2238CB93}"/>
+              <c16:uniqueId val="{00000000-C76B-4AE5-A50A-852C6314CBDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4612,16 +4703,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4718,30 +4809,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582E960E-47CE-40F3-8D3E-C5E5BBA5F383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69A95AB-C146-464F-826A-DC11C9CA2C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4755,7 +4841,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6903,7 +6989,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5457F27-E467-49C2-9900-904DCFBA8F6A}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5457F27-E467-49C2-9900-904DCFBA8F6A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A110:B115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -7018,11 +7104,11 @@
     <dataField name="% of Voter Turnout" fld="7" baseField="0" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="5">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7042,6 +7128,24 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7075,7 +7179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E469EBFC-76AE-4201-8033-0533B35FA629}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H28:I80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7334,7 +7438,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B88E5D5-0120-4F46-8957-9558CF0F129F}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D28:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7440,7 +7544,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B223B18-98C8-4379-8C18-F8D893CCFC97}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -7537,7 +7641,7 @@
     <dataField name="% of Voter Population" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7576,7 +7680,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79ED8B66-BCE6-4846-B81D-8AB737B3712F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A88:C94" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7668,7 +7772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E40F3E-FCD3-407B-8CC0-353499D00D81}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A26:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -8065,14 +8169,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -8190,7 +8292,7 @@
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>13463000</v>
       </c>
       <c r="D27" s="3"/>
@@ -8201,7 +8303,7 @@
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>1447000</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -8225,13 +8327,13 @@
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>2070000</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>2902000</v>
       </c>
       <c r="F29" s="4">
@@ -8250,7 +8352,7 @@
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>2118000</v>
       </c>
       <c r="G30" s="3"/>
@@ -8265,7 +8367,7 @@
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>4926000</v>
       </c>
       <c r="G31" s="3"/>
@@ -8280,7 +8382,7 @@
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>2902000</v>
       </c>
       <c r="G32" s="3"/>
@@ -8295,7 +8397,7 @@
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>13463000</v>
       </c>
       <c r="G33" s="3"/>
@@ -8840,19 +8942,4 @@
   <pageSetup orientation="portrait" r:id="rId7"/>
   <drawing r:id="rId8"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1E2347-1B0C-42E3-80F7-0B1E82BB9A92}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>